--- a/数据整理/stocks/A股/深证主板/000166-申万宏源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000166-申万宏源.xlsx
@@ -451,827 +451,1117 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>389.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.3487</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>229.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.0839</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>67.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7919</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4228</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0162</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8016</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6771</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5250</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4656</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4308</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008591</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3218</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2983</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>008590</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>天弘中证全指证券公司指数A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>95.04</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>2.50</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008591</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>天弘中证全指证券公司指数C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>95.04</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2902</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2667</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1880</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1790</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>2.50</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004937</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中航混改精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>008838</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>德邦量化对冲策略灵活配置混合A</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>66.58</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1.06</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004936</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中航混改精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>008839</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>德邦量化对冲策略灵活配置混合C</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>66.58</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1.06</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>159993</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华国证证券龙头ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>97.91</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>160419</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华安中证全指证券公司指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>94.69</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>160516</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博时中证全指证券公司指数</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>160633</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏华中证全指证券公司指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>161027</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富国中证全指证券公司指数</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>161720</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>招商中证全指证券公司指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>94.94</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>163113</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>申万菱信中证申万证券行业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>501016</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国泰中证申万证券行业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>94.03</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>501047</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>汇添富中证全指证券公司指数LOF A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>501048</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>汇添富中证全指证券公司指数LOF C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>502010</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>易方达证券公司指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>502053</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>长盛中证全指证券公司指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>512000</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华宝中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>99.87</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>512570</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>易方达中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>98.58</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>512880</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>国泰中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>99.83</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>512900</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>南方中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>99.89</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>515010</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>华夏中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>98.48</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>515560</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>建信中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>98.90</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>515850</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>富国中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>98.94</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>004936</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>中航混改精选混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>91.03</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>004937</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>中航混改精选混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>91.03</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>004456</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>兴银消费新趋势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>90.51</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>005265</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>博时厚泽回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>91.76</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>005266</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>博时厚泽回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>91.76</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1281,7 +1571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1302,15 +1592,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1322,25 +1622,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501016</t>
+          <t>512880</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰中证申万证券行业指数（LOF）</t>
+          <t>国泰中证全指证券公司ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.20</t>
+          <t>348.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.5097</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501047</t>
+          <t>512000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证全指证券公司指数LOF A</t>
+          <t>华宝中证全指证券公司ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>243.85</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.6815</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501048</t>
+          <t>512900</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富中证全指证券公司指数LOF C</t>
+          <t>南方中证全指证券公司ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>65.96</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>99.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8139</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1406,25 +1736,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>502010</t>
+          <t>161720</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达证券公司指数（LOF）</t>
+          <t>招商中证全指证券公司指数（LOF）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>29.58</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7720</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1434,25 +1774,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>502053</t>
+          <t>163113</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长盛中证全指证券公司指数（LOF）</t>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>22.71</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>2.56</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5814</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1462,25 +1812,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>512000</t>
+          <t>159993</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华宝中证全指证券公司ETF</t>
+          <t>鹏华国证证券龙头ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>99.83</t>
+          <t>17.34</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5688</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1490,25 +1850,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>512570</t>
+          <t>501016</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>易方达中证全指证券公司ETF</t>
+          <t>国泰中证申万证券行业指数（LOF）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>98.88</t>
+          <t>19.56</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5007</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1518,25 +1888,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>512880</t>
+          <t>161027</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国泰中证全指证券公司ETF</t>
+          <t>富国中证全指证券公司指数</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>99.85</t>
+          <t>17.50</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4602</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>512900</t>
+          <t>501047</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>南方中证全指证券公司ETF</t>
+          <t>汇添富中证全指证券公司指数LOF A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>99.91</t>
+          <t>16.63</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4457</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1574,25 +1964,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>515010</t>
+          <t>008590</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华夏中证全指证券公司ETF</t>
+          <t>天弘中证全指证券公司指数A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>98.84</t>
+          <t>15.77</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4069</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1602,25 +2002,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>515560</t>
+          <t>160633</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>建信中证全指证券公司ETF</t>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>98.86</t>
+          <t>14.81</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3821</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1630,25 +2040,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>515850</t>
+          <t>008591</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>富国中证全指证券公司ETF</t>
+          <t>天弘中证全指证券公司指数C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>98.90</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3320</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1658,25 +2078,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>159841</t>
+          <t>515560</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天弘中证全指证券公司ETF</t>
+          <t>建信中证全指证券公司ETF</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>98.34</t>
+          <t>11.23</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3055</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>159993</t>
+          <t>501048</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鹏华国证证券龙头ETF</t>
+          <t>汇添富中证全指证券公司指数LOF C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>97.85</t>
+          <t>10.22</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2739</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1714,25 +2154,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>160419</t>
+          <t>515010</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华安中证全指证券公司指数（LOF）A</t>
+          <t>华夏中证全指证券公司ETF</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>7.34</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1982</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1742,25 +2192,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>160516</t>
+          <t>502010</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>博时中证全指证券公司指数</t>
+          <t>易方达证券公司指数（LOF）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1517</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1770,25 +2230,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>160633</t>
+          <t>160419</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>鹏华中证全指证券公司指数（LOF）</t>
+          <t>华安中证全指证券公司指数（LOF）A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>94.16</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>2.58</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1429</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1798,25 +2268,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>161027</t>
+          <t>159841</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>富国中证全指证券公司指数</t>
+          <t>天弘中证全指证券公司ETF</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1299</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1826,25 +2306,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>161720</t>
+          <t>160516</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>招商中证全指证券公司指数（LOF）</t>
+          <t>博时中证全指证券公司指数</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1854,25 +2344,35 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>163113</t>
+          <t>502053</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>申万菱信中证申万证券行业指数（LOF）</t>
+          <t>长盛中证全指证券公司指数（LOF）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>93.68</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>2.56</t>
         </is>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1882,25 +2382,35 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>008590</t>
+          <t>515850</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天弘中证全指证券公司指数A</t>
+          <t>富国中证全指证券公司ETF</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1910,25 +2420,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>008591</t>
+          <t>512570</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天弘中证全指证券公司指数C</t>
+          <t>易方达中证全指证券公司ETF</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
+          <t>98.88</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000166-申万宏源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000166-申万宏源.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2455,4 +2456,1314 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>320.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.0443</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>238.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.9622</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1571</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7666</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008590</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6522</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5532</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008591</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5378</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5107</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011093</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>永赢宏泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>48.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5087</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4947</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4781</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4469</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3981</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2993</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2543</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2331</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2020</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1464</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1426</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>165310</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003734</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家瑞盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007806</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信MSCI中国A股指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007807</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>建信MSCI中国A股指数增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003735</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家瑞盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009595</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>山西证券裕盛一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009208</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000166-申万宏源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000166-申万宏源.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3766,4 +3767,1386 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>338.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.6470</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>226.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.4730</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2517</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012412</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>39.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3272</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9713</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7815</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6336</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5815</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5634</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5588</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4726</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4512</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4332</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3104</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2919</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2136</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>73.89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1184</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002135</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>64.85</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002833</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏新锦绣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>65.43</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004652</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>建信鑫利回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>34.40</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004653</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>建信鑫利回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>34.40</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005443</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>63.57</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>73.89</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002136</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>64.85</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002834</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏新锦绣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>65.43</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000166-申万宏源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000166-申万宏源.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5149,4 +5150,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25.61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000166-申万宏源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000166-申万宏源.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5158,7 +5159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5169,17 +5170,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5189,14 +5210,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>35</v>
-      </c>
-      <c r="D2" t="n">
-        <v>27.17</v>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>358.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.3660</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -5205,14 +5248,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>33</v>
-      </c>
-      <c r="D3" t="n">
-        <v>23.38</v>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>238.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.4992</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -5221,14 +5286,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23.86</v>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7912</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -5237,13 +5324,1477 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>012412</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4558</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>42.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3457</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8639</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7155</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6863</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6655</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6250</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5610</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5081</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5023</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002833</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏新锦绣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>67.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4584</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3598</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3520</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2482</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1607</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1502</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002135</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>69.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>56.17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>165310</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007806</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信MSCI中国A股指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007807</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>建信MSCI中国A股指数增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004653</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>建信鑫利回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>41.51</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004652</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>建信鑫利回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>41.51</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009208</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>56.17</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002136</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>69.62</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002834</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏新锦绣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>67.33</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>39</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>35</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23.86</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>28</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>25.61</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000166-申万宏源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000166-申万宏源.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6693,7 +6694,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6704,17 +6705,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6724,14 +6745,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>39</v>
-      </c>
-      <c r="D2" t="n">
-        <v>32.26</v>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>322.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.4760</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -6740,14 +6783,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>35</v>
-      </c>
-      <c r="D3" t="n">
-        <v>27.17</v>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>230.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.4903</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -6756,14 +6821,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>33</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23.38</v>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5444</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -6772,14 +6859,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>22</v>
-      </c>
-      <c r="D5" t="n">
-        <v>23.86</v>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>42.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3884</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -6788,13 +6897,1383 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>39.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9977</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8900</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7004</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6181</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5862</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5719</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5413</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4808</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4601</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4307</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4285</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3702</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3273</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2548</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2445</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1661</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1540</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1509</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>75.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>165310</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007806</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>建信MSCI中国A股指数增强A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>96.69</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007807</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>建信MSCI中国A股指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004652</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>建信鑫利回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>63.43</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004653</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信鑫利回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>63.43</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001397</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>建信精工制造指数增强</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009208</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>75.38</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>37</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>39</v>
+      </c>
+      <c r="D3" t="n">
+        <v>32.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>35</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23.38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>23.86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>28</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>25.61</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000166-申万宏源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000166-申万宏源.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8156,7 +8157,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8167,17 +8168,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8187,14 +8208,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>37</v>
-      </c>
-      <c r="D2" t="n">
-        <v>30.89</v>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>326.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.0002</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -8203,14 +8246,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>39</v>
-      </c>
-      <c r="D3" t="n">
-        <v>32.26</v>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>228.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.6253</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -8219,14 +8284,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>35</v>
-      </c>
-      <c r="D4" t="n">
-        <v>27.17</v>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>80.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9622</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -8235,14 +8322,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>33</v>
-      </c>
-      <c r="D5" t="n">
-        <v>23.38</v>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9824</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -8251,14 +8360,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>22</v>
-      </c>
-      <c r="D6" t="n">
-        <v>23.86</v>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5805</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -8267,13 +8398,1133 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4809</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4350</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4184</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3394</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3333</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3081</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2518</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2496</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1661</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012044</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1133</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014984</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安中证证券公司C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013712</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>方正富邦鑫益一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015178</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013276</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013597</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013713</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>方正富邦鑫益一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>37</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>39</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="n">
+        <v>23.38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>22</v>
+      </c>
+      <c r="D7" t="n">
+        <v>23.86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>28</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>25.61</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000166-申万宏源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000166-申万宏源.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>20.96</v>
+        <v>20.69</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
-        <v>30.89</v>
+        <v>20.96</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" t="n">
-        <v>32.26</v>
+        <v>30.89</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D5" t="n">
-        <v>27.17</v>
+        <v>32.26</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>23.38</v>
+        <v>27.17</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
-        <v>23.86</v>
+        <v>23.38</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>22</v>
+      </c>
+      <c r="D8" t="n">
+        <v>23.86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>28</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>25.61</v>
       </c>
     </row>
@@ -600,6 +617,1316 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>289.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.6946</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>215.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.7432</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0945</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>45.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2156</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5592</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4561</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4066</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3130</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3032</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2990</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2328</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2236</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1743</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012044</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1472</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1395</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1303</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安中证证券公司A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012874</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>96.87</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>516730</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浦银安盛中证证券公司30ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>97.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013712</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>方正富邦鑫益一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>32.96</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013276</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013597</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>97.22</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014984</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安中证证券公司C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015178</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013713</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>方正富邦鑫益一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>32.96</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>015598</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1833,7 +3160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3295,7 +4622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4829,7 +6156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6211,7 +7538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7521,7 +8848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8413,7 +9740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000166-申万宏源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000166-申万宏源.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>20.69</v>
+        <v>19.78</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
-        <v>20.96</v>
+        <v>20.69</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
-        <v>30.89</v>
+        <v>20.96</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" t="n">
-        <v>32.26</v>
+        <v>30.89</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D6" t="n">
-        <v>27.17</v>
+        <v>32.26</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D7" t="n">
-        <v>23.38</v>
+        <v>27.17</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D8" t="n">
-        <v>23.86</v>
+        <v>23.38</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1150 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>22</v>
+      </c>
+      <c r="D9" t="n">
+        <v>23.86</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>28</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>25.61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>389.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.3487</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>229.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.0839</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>67.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7919</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4228</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0162</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8016</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6771</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5250</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4656</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4308</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008591</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3218</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2983</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008590</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2902</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2667</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1880</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1790</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004937</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中航混改精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008838</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>66.58</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004936</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中航混改精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008839</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>66.58</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1754,1202 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>296.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.4804</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>221.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.5270</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>76.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9060</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0208</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5428</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4515</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4017</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3055</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2986</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2712</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2240</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2104</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1687</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012044</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1279</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安中证证券公司A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012874</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013276</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>96.80</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>516730</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浦银安盛中证证券公司30ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>100.45</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013597</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015598</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014984</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安中证证券公司C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015178</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1926,7 +4259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3160,7 +5493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4622,7 +6955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6156,7 +8489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7538,7 +9871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8848,7 +11181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9738,1124 +12071,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>512880</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>389.05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.83</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>10.3487</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>512000</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华宝中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>229.58</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.87</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>6.0839</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>512900</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>67.62</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.89</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.7919</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161720</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商中证全指证券公司指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>56.46</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.94</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.4228</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>163113</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>申万菱信中证申万证券行业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>34.33</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.0162</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>161027</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国中证全指证券公司指数</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>31.56</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.8016</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>501016</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国泰中证申万证券行业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>22.42</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.03</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.6771</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>159993</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏华国证证券龙头ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>15.72</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>97.91</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.5250</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>501047</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>汇添富中证全指证券公司指数LOF A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>17.84</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4656</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>160633</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>鹏华中证全指证券公司指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>17.23</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4308</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008591</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>天弘中证全指证券公司指数C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>12.87</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>95.04</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3218</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>515560</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>建信中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>11.30</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>98.90</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2983</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008590</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>天弘中证全指证券公司指数A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>11.61</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>95.04</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2902</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>501048</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>汇添富中证全指证券公司指数LOF C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>10.22</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2667</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>515010</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华夏中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>7.23</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>98.48</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1880</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>502010</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>易方达证券公司指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>7.19</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1790</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>160419</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华安中证全指证券公司指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.69</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1525</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>502053</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>长盛中证全指证券公司指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0837</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>160516</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>博时中证全指证券公司指数</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0653</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005265</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>博时厚泽回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>91.76</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0516</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>515850</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>富国中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>98.94</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0327</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>004937</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中航混改精选混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>91.03</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0320</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>008838</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>德邦量化对冲策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>66.58</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0248</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>004936</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>中航混改精选混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>91.03</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0223</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>512570</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>易方达中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>98.58</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0140</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>005266</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>博时厚泽回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>91.76</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0129</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>004456</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>兴银消费新趋势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>90.51</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>008839</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>德邦量化对冲策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>66.58</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>